--- a/ResultadoEleicoesDistritos/COIMBRA_TÁBUA.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_TÁBUA.xlsx
@@ -597,31 +597,31 @@
         <v>3038</v>
       </c>
       <c r="H2" t="n">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I2" t="n">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J2" t="n">
-        <v>1283</v>
+        <v>1307</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="M2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
@@ -630,31 +630,31 @@
         <v>20</v>
       </c>
       <c r="S2" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="T2" t="n">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="V2" t="n">
-        <v>1898</v>
+        <v>1868</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>1964</v>
+        <v>1983</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
